--- a/biology/Médecine/Faculté_de_santé_de_Sorbonne_Université/Faculté_de_santé_de_Sorbonne_Université.xlsx
+++ b/biology/Médecine/Faculté_de_santé_de_Sorbonne_Université/Faculté_de_santé_de_Sorbonne_Université.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_Sorbonne_Universit%C3%A9</t>
+          <t>Faculté_de_santé_de_Sorbonne_Université</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de santé de Sorbonne Université, anciennement la Faculté de médecine Pierre-et-Marie-Curie, est une faculté universitaire, composante de Sorbonne Université.
-Créée par décret en 1968 au sein de l'université de Paris-VI (Pierre-et-Marie-Curie, UPMC), fondue dans le grand ensemble Sorbonne-Université en 2018 puis rebaptisée Faculté de santé en 2023[1], la faculté est l'une des 6 facultés de médecine d'Ile-de-France.
-Elle est associée au groupement hospitalier universitaire Sorbonne Université de l'AP-HP avec, entre autres, les hôpitaux Tenon, hôpital Saint-Antoine, hôpital Rothschild, Hôpital Armand-Trousseau et le groupe hospitalier de la Pitié-Salpêtrière–Charles-Foix[2].
+Créée par décret en 1968 au sein de l'université de Paris-VI (Pierre-et-Marie-Curie, UPMC), fondue dans le grand ensemble Sorbonne-Université en 2018 puis rebaptisée Faculté de santé en 2023, la faculté est l'une des 6 facultés de médecine d'Ile-de-France.
+Elle est associée au groupement hospitalier universitaire Sorbonne Université de l'AP-HP avec, entre autres, les hôpitaux Tenon, hôpital Saint-Antoine, hôpital Rothschild, Hôpital Armand-Trousseau et le groupe hospitalier de la Pitié-Salpêtrière–Charles-Foix.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_Sorbonne_Universit%C3%A9</t>
+          <t>Faculté_de_santé_de_Sorbonne_Université</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Campus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté a pour siège le 91-105, boulevard de l'Hôpital, à Paris. C'est le site historique de l'Hôpital de la Salpêtrière. L'ensemble Sorbonne-Université a choisi pour siège le site des Cordeliers, rue de l'École-de-médecine, où l'amphithéâtre Saint-Côme loué par les franciscains avait abrité le premier collège de médecine de Paris.
 Les enseignements sont dispensés principalement au sein du groupe hospitalier de la Pitié-Salpêtrière–Charles-Foix, dans l'hôpital Saint-Antoine, et dans l'hôpital Antoine-Béclère, ainsi qu'à l'Institut Henri-Poincaré du 11 rue Pierre-et-Marie-Curie.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_Sorbonne_Universit%C3%A9</t>
+          <t>Faculté_de_santé_de_Sorbonne_Université</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de santé offre un enseignement dans les trois cycles d’études médicales (1er cycle, 2e cycle et 3e cycle incluant DES, DESC, DU et DIU), ainsi que des enseignements paramédicaux (l’orthophonie, la psychomotricité et l’orthoptie).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_Sorbonne_Universit%C3%A9</t>
+          <t>Faculté_de_santé_de_Sorbonne_Université</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,17 +592,19 @@
           <t>Informations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2020[3], le doyen de la faculté est Bruno Riou, secondé par Thierry Lardot (directeur général).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2020, le doyen de la faculté est Bruno Riou, secondé par Thierry Lardot (directeur général).
 La faculté compte en 2022 : 
-4 080 étudiants en licence[4],
-9 263 étudiants en master[4],
-274 enseignants hospitalo-universitaires contractuels (chefs de clinique)[5]
-395 enseignants hospitalo-universitaires titulaires (MCUPH et PUPH)[5],
-12 unités de recherche[6],
+4 080 étudiants en licence,
+9 263 étudiants en master,
+274 enseignants hospitalo-universitaires contractuels (chefs de clinique)
+395 enseignants hospitalo-universitaires titulaires (MCUPH et PUPH),
+12 unités de recherche,
 6 grands hôpitaux (formant le GHU AP-HP Sorbonne Université)
-En 2021, les enseignants-chercheurs de la Faculté sont au nombre de 395, et la spécialité la plus représentée est celle du « Développement et pathologie de l'enfant, gynécologie-obstétrique, endocrinologie et reproduction » (section 54)[5].
+En 2021, les enseignants-chercheurs de la Faculté sont au nombre de 395, et la spécialité la plus représentée est celle du « Développement et pathologie de l'enfant, gynécologie-obstétrique, endocrinologie et reproduction » (section 54).
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_Sorbonne_Universit%C3%A9</t>
+          <t>Faculté_de_santé_de_Sorbonne_Université</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +633,12 @@
           <t>Vie étudiante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-De nombreuses associations proposent des activités tout au long de l'année[7] : Acoufem (concours des fanfares de médecine de France), AESF PSA (sages-femmes), Association des petits cochons (rugby et football), AVC PSA (criteriums, regroupements d'étudiants en médecine), Bureau des sports Saint-Antoine (80 sports), la Corpo des Carabins de Sorbonne Université (C2SU, association avec 12 pôles, Tutorat des années supérieures, Représentation étudiante, Tutorat pour le PASS et le LAS, Événementiel, Santé globale et solidarité, Informatique, Photographie, Scop pour les musiciens…), Comed’scène (comédies musicales), FCPS (football féminin), la Troupe des voyages de Badroulboudour (théâtre pour enfants hospitalisés), Fallopes (féministe queer et intersectionnel), Med’Alo (activités nautiques), Les petites cochonnes de Saint-Antoine (rugby féminin), Moktar Sound System (fanfare de la faculté), PSA Green (écolo), PS’Art (art et culture pour tous), Sol'SU (missions humanitaires), Théâtreux de la paillasse (jeu théâtral), Association des Étudiant·e·s en Orthoptie de Sorbonne Université (AEOSU, entraide), Association des étudiants et professionnels en psychomotricité (AFEPP), Association parisienne des étudiant.e.s en orthophonie (APEO), Association psychomot' des étudiants de la Pitié Salpêtrière (APEPS), Solidarités étudiantes (COP'1, lutte contre la précarité étudiante), Oasis (international et interculturel), Paris 6 Langues des signes (P6LS, promotion de la culture sourde), Psychomotricité en action (PEA, solidarité internationale), Psychomotricité et ouverture sur le monde du maternage (POMM), Psychomotricité sans frontière (PSF), Association générale des étudiants de Paris (AGEP)…</t>
+De nombreuses associations proposent des activités tout au long de l'année : Acoufem (concours des fanfares de médecine de France), AESF PSA (sages-femmes), Association des petits cochons (rugby et football), AVC PSA (criteriums, regroupements d'étudiants en médecine), Bureau des sports Saint-Antoine (80 sports), la Corpo des Carabins de Sorbonne Université (C2SU, association avec 12 pôles, Tutorat des années supérieures, Représentation étudiante, Tutorat pour le PASS et le LAS, Événementiel, Santé globale et solidarité, Informatique, Photographie, Scop pour les musiciens…), Comed’scène (comédies musicales), FCPS (football féminin), la Troupe des voyages de Badroulboudour (théâtre pour enfants hospitalisés), Fallopes (féministe queer et intersectionnel), Med’Alo (activités nautiques), Les petites cochonnes de Saint-Antoine (rugby féminin), Moktar Sound System (fanfare de la faculté), PSA Green (écolo), PS’Art (art et culture pour tous), Sol'SU (missions humanitaires), Théâtreux de la paillasse (jeu théâtral), Association des Étudiant·e·s en Orthoptie de Sorbonne Université (AEOSU, entraide), Association des étudiants et professionnels en psychomotricité (AFEPP), Association parisienne des étudiant.e.s en orthophonie (APEO), Association psychomot' des étudiants de la Pitié Salpêtrière (APEPS), Solidarités étudiantes (COP'1, lutte contre la précarité étudiante), Oasis (international et interculturel), Paris 6 Langues des signes (P6LS, promotion de la culture sourde), Psychomotricité en action (PEA, solidarité internationale), Psychomotricité et ouverture sur le monde du maternage (POMM), Psychomotricité sans frontière (PSF), Association générale des étudiants de Paris (AGEP)…</t>
         </is>
       </c>
     </row>
